--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\RPA02_부동산공시가격_박건후\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\공부\UiPath\RPA02_부동산공시가격_박건후\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\공부\UiPath\RPA02_부동산공시가격_박건후\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\RPA02_부동산공시가격_박건후\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -205,15 +205,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>메일제목</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[부동산공시] {0} 부동산공시가격 과제 제출_{1}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>메일본문</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -223,11 +215,66 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Data\Input\부동산공시가격.xlsx</t>
+    <t>부동산_URL</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>부동산_URL</t>
+    <t>Data\Input\부동산공시가격{0}.xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일제목_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일제목_2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일본문_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sbfpdl@gmail.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>메일본문_2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[부동산공시] {0} 수행결과_{1}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+  &lt;head&gt;
+  &lt;/head&gt;
+  &lt;body&gt;
+    &lt;p&gt;
+      안녕하세요. {0} 부동산 공시가격 수행 결과 송부드립니다.
+    &lt;/p&gt;
+    &lt;table class='table' style='width: 22%; height: 80px; border-collapse: collapse' border='1px solid black'&gt;
+      &lt;tr style='background-color:#e2e3e5'&gt;
+        &lt;td style='text-align:center'&gt;총건수&lt;/td&gt;
+        &lt;td style='text-align:center'&gt;성공건수&lt;/td&gt;
+        &lt;td style='text-align:center'&gt;실패건수&lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;tr style='background-color:#f8f9fa'&gt;
+        &lt;td style='text-align:center'&gt;&lt;b&gt;{1}&lt;/b&gt;&lt;/td&gt;
+        &lt;td style='text-align:center;color:blue'&gt;&lt;b&gt;{2}&lt;/b&gt;&lt;/td&gt;
+        &lt;td style='text-align:center;color:red'&gt;&lt;b&gt;{3}&lt;/b&gt;&lt;/td&gt;
+      &lt;/tr&gt;
+    &lt;/table&gt;
+    &lt;p&gt;
+      😭실패 리스트 : {4}
+    &lt;/p&gt;
+  &lt;/body&gt;
+&lt;/html&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -235,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -320,14 +367,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -399,12 +438,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
@@ -722,16 +759,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43" style="5" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" style="5" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="5" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="5"/>
@@ -783,7 +820,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -834,7 +871,7 @@
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>49</v>
@@ -851,7 +888,7 @@
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -866,34 +903,57 @@
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="18" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="82.5">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="82.5">
-      <c r="A15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>59</v>
+    <row r="18" spans="1:2" ht="409.5">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
